--- a/1.xlsx
+++ b/1.xlsx
@@ -123,7 +123,7 @@
     <t>26.05.2002</t>
   </si>
   <si>
-    <t>поинтфайтинг</t>
+    <t>Поинтфайтинг</t>
   </si>
 </sst>
 </file>
